--- a/biology/Zoologie/Ctenophora_(Ctenophora)/Ctenophora_(Ctenophora).xlsx
+++ b/biology/Zoologie/Ctenophora_(Ctenophora)/Ctenophora_(Ctenophora).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ctenophora (Ctenophora) est un sous-genre d'insectes diptères nématocères de la famille des tipulidés.
 </t>
@@ -511,11 +523,48 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ctenophora amabilis – Ctenophora apicata – Ctenophora biguttata – Ctenophora ctenophorina – Ctenophora elegans – Ctenophora flaveolata – Ctenophora formosana – Ctenophora guttata – Ctenophora nigriceps – Ctenophora nikkoensis – Ctenophora nubecula – Ctenophora pectinicornis – Ctenophora perjocosa – Ctenophora pselliophoroides – Ctenophora scalator – Ctenophora tricolor
-Espèces rencontrées en Europe
-Ctenophora (Ctenophora) elegans Meigen, 1818
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ctenophora amabilis – Ctenophora apicata – Ctenophora biguttata – Ctenophora ctenophorina – Ctenophora elegans – Ctenophora flaveolata – Ctenophora formosana – Ctenophora guttata – Ctenophora nigriceps – Ctenophora nikkoensis – Ctenophora nubecula – Ctenophora pectinicornis – Ctenophora perjocosa – Ctenophora pselliophoroides – Ctenophora scalator – Ctenophora tricolor
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ctenophora_(Ctenophora)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ctenophora_(Ctenophora)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Espèces rencontrées en Europe</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ctenophora (Ctenophora) elegans Meigen, 1818
 Ctenophora (Ctenophora) flaveolata (Fabricius, 1794)
 Ctenophora (Ctenophora) guttata Meigen, 1818
 Ctenophora (Ctenophora) nigriceps (Tjeder, 1949)
